--- a/output/3_Regression/h19_test/h19coef_lasso.xlsx
+++ b/output/3_Regression/h19_test/h19coef_lasso.xlsx
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.0228084642762195</v>
+        <v>0.02290530509104994</v>
       </c>
     </row>
     <row r="3" spans="1:3">

--- a/output/3_Regression/h19_test/h19coef_lasso.xlsx
+++ b/output/3_Regression/h19_test/h19coef_lasso.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Var</t>
   </si>
@@ -28,51 +28,51 @@
     <t>Monetary Policy Rate_lag_2</t>
   </si>
   <si>
+    <t>Wheat (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_1</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_2</t>
+  </si>
+  <si>
     <t>Crude oil (US$ per barrel)_lag_3</t>
   </si>
   <si>
-    <t>Crude oil (US$ per barrel)_lag_2</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_1</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_1</t>
-  </si>
-  <si>
     <t>Real Minimum Wage (Index)_lag_4</t>
   </si>
   <si>
@@ -82,37 +82,49 @@
     <t>Real Minimum Wage (Index)_lag_2</t>
   </si>
   <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_3</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_4</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_1</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_2</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_3</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_4</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
+  </si>
+  <si>
     <t>Real Minimum Wage (Index)_lag_1</t>
   </si>
   <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_1</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_2</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_3</t>
+  </si>
+  <si>
     <t>Net International Reserves (mill $)_lag_4</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_3</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_2</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_1</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_4</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_3</t>
   </si>
   <si>
     <t>Crude oil (US$ per barrel)_lag_4</t>
@@ -473,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.02290530509104994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -511,7 +523,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -522,7 +534,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -533,7 +545,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -544,7 +556,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -555,7 +567,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -577,7 +589,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -588,7 +600,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -599,7 +611,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -610,7 +622,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -621,7 +633,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -632,7 +644,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -643,7 +655,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -654,7 +666,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -665,7 +677,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -676,7 +688,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -687,7 +699,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -698,7 +710,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -709,7 +721,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -720,29 +732,29 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -753,7 +765,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -764,7 +776,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -775,7 +787,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -786,7 +798,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -797,7 +809,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -808,7 +820,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -819,7 +831,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -830,12 +842,56 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
         <v>0</v>
       </c>
     </row>

--- a/output/3_Regression/h19_test/h19coef_lasso.xlsx
+++ b/output/3_Regression/h19_test/h19coef_lasso.xlsx
@@ -738,7 +738,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -749,7 +749,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -760,7 +760,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -771,7 +771,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -793,7 +793,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:3">

--- a/output/3_Regression/h19_test/h19coef_lasso.xlsx
+++ b/output/3_Regression/h19_test/h19coef_lasso.xlsx
@@ -22,109 +22,109 @@
     <t>Coefficient</t>
   </si>
   <si>
+    <t>Soybean oil (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_1</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_1</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_2</t>
+  </si>
+  <si>
     <t>Monetary Policy Rate_lag_1</t>
   </si>
   <si>
+    <t>Crude oil (US$ per barrel)_lag_2</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_3</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_1</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_4</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_3</t>
+  </si>
+  <si>
     <t>Monetary Policy Rate_lag_2</t>
   </si>
   <si>
-    <t>Wheat (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_1</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_2</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_3</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_3</t>
-  </si>
-  <si>
     <t>Real Minimum Wage (Index)_lag_2</t>
   </si>
   <si>
+    <t>Net International Reserves (mill $)_lag_4</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_3</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_2</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_1</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
+  </si>
+  <si>
     <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
   </si>
   <si>
+    <t>Exchange rate_lag_4</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_3</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_2</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_4</t>
+  </si>
+  <si>
     <t>Monetary Policy Rate_lag_3</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_4</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_1</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_2</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_3</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_4</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_1</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_1</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_2</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_3</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_4</t>
   </si>
   <si>
     <t>Crude oil (US$ per barrel)_lag_4</t>
@@ -501,24 +501,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.04830895868683469</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.03653204716382509</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -529,117 +529,117 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.01215127791949725</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-0.0112520545530862</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01013601196574617</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.007899395809801313</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.005514908279877971</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.004192118932809056</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.003898031407673733</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.003051140615436008</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -655,18 +655,18 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -677,51 +677,51 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -732,29 +732,29 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -798,40 +798,40 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -864,18 +864,18 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -892,7 +892,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h19coef_lasso.xlsx
+++ b/output/3_Regression/h19_test/h19coef_lasso.xlsx
@@ -22,109 +22,109 @@
     <t>Coefficient</t>
   </si>
   <si>
+    <t>Monetary Policy Rate_lag_1</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_2</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_4</t>
+  </si>
+  <si>
     <t>Soybean oil (US$ per ton)_lag_1</t>
   </si>
   <si>
+    <t>Soybean oil (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_4</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_1</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_2</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_3</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_4</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_3</t>
+  </si>
+  <si>
+    <t>Real Minimum Wage (Index)_lag_2</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_3</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_4</t>
+  </si>
+  <si>
     <t>Exchange rate_lag_1</t>
   </si>
   <si>
-    <t>Wheat (US$ per ton)_lag_1</t>
+    <t>Exchange rate_lag_2</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_3</t>
+  </si>
+  <si>
+    <t>Exchange rate_lag_4</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
   </si>
   <si>
     <t>Real Minimum Wage (Index)_lag_1</t>
   </si>
   <si>
-    <t>Wheat (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_1</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_2</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_3</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_1</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_4</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_3</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_2</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_2</t>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_1</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_2</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_3</t>
   </si>
   <si>
     <t>Net International Reserves (mill $)_lag_4</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_3</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_2</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_1</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_4</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_3</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_2</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_4</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_3</t>
   </si>
   <si>
     <t>Crude oil (US$ per barrel)_lag_4</t>
@@ -501,24 +501,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.04830895868683469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.03653204716382509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -529,117 +529,117 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.01215127791949725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>-0.0112520545530862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.01013601196574617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.007899395809801313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.005514908279877971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.004192118932809056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.003898031407673733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.003051140615436008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -655,18 +655,18 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -677,51 +677,51 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -732,29 +732,29 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -798,40 +798,40 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -864,18 +864,18 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -892,7 +892,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
